--- a/112208077_經濟二甲_邱晨綠.xlsx
+++ b/112208077_經濟二甲_邱晨綠.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiuchenlyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiuchenlyu/Documents/GitHub/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0C8ED-0FE8-1443-9286-E78627054EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309846B8-29D5-1E45-9234-99EF80080EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>何大美</t>
   </si>
@@ -236,26 +236,6 @@
       </rPr>
       <t>ò</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -391,321 +371,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Students' Grades</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$J$25:$J$29</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$K$25:$K$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9620-CE46-A889-E3F9E87BD2E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1324240031"/>
-        <c:axId val="1246944895"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1324240031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1246944895"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1246944895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1324240031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1019,7 +684,392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="zh-TW"/>
+              <a:t>overall score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2: overall score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>何大美</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陳慢慢</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黃阿坤</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>李大仁</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>陳小奇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>羅小花</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>李小君</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>李大輝</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>白阿國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>王小明</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>李大月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>林大義</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>宋小倫</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>許亮亮</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99E5-4441-BDB6-96E26CEFCE44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1319454751"/>
+        <c:axId val="1645935231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1319454751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645935231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1645935231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319454751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1059,14 +1109,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1123,7 +1167,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1174,6 +1218,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1184,12 +1235,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1227,7 +1285,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1270,22 +1328,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1390,8 +1449,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1523,19 +1582,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1569,7 +1629,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1626,7 +1686,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1677,13 +1737,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1694,19 +1747,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1744,7 +1790,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1787,23 +1833,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1908,8 +1953,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2041,20 +2086,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2091,23 +2135,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="圖表 12">
+        <xdr:cNvPr id="14" name="圖表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3A307A-0AE0-43BC-02C8-440771AA0C94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF724D93-3649-42CE-F2E4-4649F405BCA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,23 +2171,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="圖表 13">
+        <xdr:cNvPr id="5" name="圖表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF724D93-3649-42CE-F2E4-4649F405BCA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6EB4E5-AD4D-8AD6-57F6-4529C5CD769C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3137,7 +3181,7 @@
         <v>76.871428571428581</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M17">
         <f>COUNTIF(L2:L15,"pass")</f>
@@ -3146,7 +3190,7 @@
     </row>
     <row r="18" spans="3:13">
       <c r="L18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M18">
         <f>COUNTIF(L2:L15,"fail")</f>
@@ -3156,51 +3200,6 @@
     <row r="24" spans="3:13" ht="16">
       <c r="J24" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25">
-        <f>COUNTIF(K2:K15,"A")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26">
-        <f>COUNTIF(K2:K15,"B")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="J27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27">
-        <f>COUNTIF(K2:K15,"C")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="J28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28">
-        <f>COUNTIF(K2:K15,"D")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29">
-        <f>COUNTIF(K2:K15,"F")</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
